--- a/notebooks/example_excel_file.xlsx
+++ b/notebooks/example_excel_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colewagner632/PersonalFinancePy/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D90038-016D-CE41-8919-E6962FC3DE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D9584D-4D2B-9042-A020-BAF74771F67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16560" xr2:uid="{4F35328B-F9FF-3F41-A60C-52715521F80C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>category</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Shell</t>
+  </si>
+  <si>
+    <t>amount_budgeted</t>
   </si>
 </sst>
 </file>
@@ -460,12 +463,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -476,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
